--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">school </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +31,14 @@
   </si>
   <si>
     <t>discipline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retrieval_word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,29 +383,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
